--- a/uploads/new_hires.xlsx
+++ b/uploads/new_hires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Natabo Dorcus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>john.doe@company.com</t>
+          <t>natabo.dorcus@company.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,12 +500,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Musimenta Daphine Liz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jane.smith@company.com</t>
+          <t>musimenta.daphine@company.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,12 +532,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alex Kim</t>
+          <t>Ninsiima Whitney</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alex.kim@company.com</t>
+          <t>ninsiima.whitney@company.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,12 +564,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tom Lee</t>
+          <t>Mbabazi Lillian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tom.lee@company.com</t>
+          <t>mbabazi.lillian@company.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,6 +588,70 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nuwasiima Amos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nuwasiima.amos@company.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Agaba Duncan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>agaba.duncan@company.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>active</t>
         </is>
